--- a/target/test-classes/testData/testdata.xlsx
+++ b/target/test-classes/testData/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationFramework\TestAutomationFramework\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shine\Shine-SeleniumFramework\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFE1E72-8ADD-4AB6-AF96-63B48F86363A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1BEB5-12D4-4B5C-A025-0DD53FC4D0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2004" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{73A8CA73-184E-4488-A6DD-3F2006B78B68}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +79,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,15 +503,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B43D5D5-44B5-4821-BABE-43173BEE4497}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -525,9 +531,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{CDE82954-C5E0-49AA-90CF-F4F84A8CC7AE}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{51FD462C-D612-43DB-91B0-E40DE5528672}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
